--- a/data/Historico de Robos Mondelez.xlsx
+++ b/data/Historico de Robos Mondelez.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elthon Daniel Rivas\OneDrive - ILSP GLOBAL SEGURIDAD PRIVADA SAPI DE C.V\Documentos\Areas de Trabajo\Inteligencia de Negocios\Aplicaciones\Productivo\RiesgoMondelez\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F06B72E-C92E-4231-A9CE-20A258E788E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ACBE3D-BDFC-4D1B-A8F1-7AF8A3EAA48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46DA9119-B414-43D6-856D-41E7D57F0765}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="508">
   <si>
     <t>Autopista México - Puebla</t>
   </si>
@@ -468,9 +468,6 @@
     <t xml:space="preserve"> MARCO ANTONIO SAVEDRA</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve"> CRAVIOTO TULANCINGO</t>
   </si>
   <si>
@@ -1341,9 +1338,6 @@
     <t>GABVRIEL MORALES</t>
   </si>
   <si>
-    <t>Carretera México Puebla</t>
-  </si>
-  <si>
     <t>DAVID ARQUEZ</t>
   </si>
   <si>
@@ -1527,9 +1521,6 @@
     <t>Autopista México - Querétaro</t>
   </si>
   <si>
-    <t>Autopista México-Puebla</t>
-  </si>
-  <si>
     <t>Autopista Querétaro - San Luis Potosí</t>
   </si>
   <si>
@@ -1585,9 +1576,6 @@
   </si>
   <si>
     <t>Autopista Toluca - Naucalpan</t>
-  </si>
-  <si>
-    <t>Autopista Cordoba - Puebla</t>
   </si>
   <si>
     <t>Autopista Jurica - San Juan del Río</t>
@@ -2173,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9E9A14-3547-4C07-94E4-960D372374FC}">
   <dimension ref="A1:W155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2187,70 +2175,70 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="V1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -2279,7 +2267,7 @@
         <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J2" t="s">
         <v>35</v>
@@ -2288,10 +2276,10 @@
         <v>104</v>
       </c>
       <c r="L2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>14</v>
@@ -2315,10 +2303,10 @@
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W2" s="18"/>
     </row>
@@ -2345,10 +2333,10 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J3" t="s">
         <v>35</v>
@@ -2357,10 +2345,10 @@
         <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>33</v>
@@ -2384,10 +2372,10 @@
         <v>12</v>
       </c>
       <c r="U3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="V3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="W3" s="19"/>
     </row>
@@ -2414,22 +2402,22 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J4" t="s">
         <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>33</v>
@@ -2453,10 +2441,10 @@
         <v>16</v>
       </c>
       <c r="U4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -2482,10 +2470,10 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J5" t="s">
         <v>35</v>
@@ -2494,10 +2482,10 @@
         <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>33</v>
@@ -2521,10 +2509,10 @@
         <v>12</v>
       </c>
       <c r="U5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -2553,16 +2541,16 @@
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J6" t="s">
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>114</v>
@@ -2589,10 +2577,10 @@
         <v>10</v>
       </c>
       <c r="U6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -2621,16 +2609,16 @@
         <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>114</v>
@@ -2657,10 +2645,10 @@
         <v>6</v>
       </c>
       <c r="U7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -2689,16 +2677,16 @@
         <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J8" t="s">
         <v>5</v>
       </c>
       <c r="K8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>114</v>
@@ -2725,10 +2713,10 @@
         <v>7</v>
       </c>
       <c r="U8" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -2757,19 +2745,19 @@
         <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L9" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>1</v>
@@ -2793,10 +2781,10 @@
         <v>15</v>
       </c>
       <c r="U9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
@@ -2825,19 +2813,19 @@
         <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J10" t="s">
         <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>14</v>
@@ -2861,10 +2849,10 @@
         <v>18</v>
       </c>
       <c r="U10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -2890,22 +2878,22 @@
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J11" t="s">
         <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>91</v>
@@ -2929,10 +2917,10 @@
         <v>12</v>
       </c>
       <c r="U11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V11" t="s">
-        <v>427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
@@ -2961,16 +2949,16 @@
         <v>96</v>
       </c>
       <c r="I12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>102</v>
@@ -2997,10 +2985,10 @@
         <v>7</v>
       </c>
       <c r="U12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -3026,10 +3014,10 @@
         <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J13" t="s">
         <v>5</v>
@@ -3038,7 +3026,7 @@
         <v>4</v>
       </c>
       <c r="L13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>82</v>
@@ -3065,10 +3053,10 @@
         <v>20</v>
       </c>
       <c r="U13" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -3094,19 +3082,19 @@
         <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I14" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J14" t="s">
         <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>82</v>
@@ -3133,10 +3121,10 @@
         <v>7</v>
       </c>
       <c r="U14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
@@ -3165,16 +3153,16 @@
         <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J15" t="s">
         <v>62</v>
       </c>
       <c r="K15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>57</v>
@@ -3201,10 +3189,10 @@
         <v>22</v>
       </c>
       <c r="U15" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V15" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -3212,7 +3200,7 @@
         <v>44105</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -3230,10 +3218,10 @@
         <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J16" t="s">
         <v>35</v>
@@ -3242,10 +3230,10 @@
         <v>45</v>
       </c>
       <c r="L16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>91</v>
@@ -3269,10 +3257,10 @@
         <v>11</v>
       </c>
       <c r="U16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="V16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -3280,7 +3268,7 @@
         <v>44118</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -3301,19 +3289,19 @@
         <v>31</v>
       </c>
       <c r="I17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J17" t="s">
         <v>29</v>
       </c>
       <c r="K17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>14</v>
@@ -3337,10 +3325,10 @@
         <v>5</v>
       </c>
       <c r="U17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -3348,7 +3336,7 @@
         <v>44128</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -3366,22 +3354,22 @@
         <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J18" t="s">
         <v>35</v>
       </c>
       <c r="K18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>50</v>
@@ -3405,10 +3393,10 @@
         <v>12</v>
       </c>
       <c r="U18" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -3416,7 +3404,7 @@
         <v>44154</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -3434,22 +3422,22 @@
         <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J19" t="s">
         <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>91</v>
@@ -3473,7 +3461,7 @@
         <v>17</v>
       </c>
       <c r="U19" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V19" t="s">
         <v>0</v>
@@ -3484,7 +3472,7 @@
         <v>44173</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -3502,22 +3490,22 @@
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J20" t="s">
         <v>35</v>
       </c>
       <c r="K20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>1</v>
@@ -3541,10 +3529,10 @@
         <v>5</v>
       </c>
       <c r="U20" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -3555,7 +3543,7 @@
         <v>512662697</v>
       </c>
       <c r="C21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -3573,19 +3561,19 @@
         <v>73</v>
       </c>
       <c r="I21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
       </c>
       <c r="K21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>50</v>
@@ -3609,10 +3597,10 @@
         <v>4</v>
       </c>
       <c r="U21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="V21" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -3623,7 +3611,7 @@
         <v>512668584</v>
       </c>
       <c r="C22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -3638,22 +3626,22 @@
         <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J22" t="s">
         <v>35</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>43</v>
@@ -3677,7 +3665,7 @@
         <v>21</v>
       </c>
       <c r="U22" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V22" t="s">
         <v>42</v>
@@ -3691,7 +3679,7 @@
         <v>522688397</v>
       </c>
       <c r="C23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -3709,19 +3697,19 @@
         <v>31</v>
       </c>
       <c r="I23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J23" t="s">
         <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>91</v>
@@ -3745,10 +3733,10 @@
         <v>4</v>
       </c>
       <c r="U23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -3759,7 +3747,7 @@
         <v>522694491</v>
       </c>
       <c r="C24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
@@ -3774,22 +3762,22 @@
         <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J24" t="s">
         <v>35</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>50</v>
@@ -3813,10 +3801,10 @@
         <v>8</v>
       </c>
       <c r="U24" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V24" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3827,7 +3815,7 @@
         <v>522699645</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>11</v>
@@ -3845,19 +3833,19 @@
         <v>96</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>1</v>
@@ -3881,10 +3869,10 @@
         <v>10</v>
       </c>
       <c r="U25" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V25" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
@@ -3895,7 +3883,7 @@
         <v>522721406</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D26" s="16" t="s">
         <v>32</v>
@@ -3910,22 +3898,22 @@
         <v>19</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>35</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>91</v>
@@ -3949,7 +3937,7 @@
         <v>13</v>
       </c>
       <c r="U26" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V26" t="s">
         <v>0</v>
@@ -3963,7 +3951,7 @@
         <v>522725888</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>11</v>
@@ -3978,10 +3966,10 @@
         <v>19</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>46</v>
@@ -3990,10 +3978,10 @@
         <v>45</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>50</v>
@@ -4017,10 +4005,10 @@
         <v>12</v>
       </c>
       <c r="U27" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="V27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
@@ -4031,7 +4019,7 @@
         <v>522733307</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>32</v>
@@ -4049,19 +4037,19 @@
         <v>73</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>35</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>1</v>
@@ -4085,10 +4073,10 @@
         <v>21</v>
       </c>
       <c r="U28" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
@@ -4099,7 +4087,7 @@
         <v>522740762</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>32</v>
@@ -4117,7 +4105,7 @@
         <v>7</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>35</v>
@@ -4126,7 +4114,7 @@
         <v>4</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M29" s="6" t="s">
         <v>114</v>
@@ -4153,10 +4141,10 @@
         <v>3</v>
       </c>
       <c r="U29" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="V29" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -4167,7 +4155,7 @@
         <v>532761102</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>32</v>
@@ -4185,16 +4173,16 @@
         <v>31</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M30" s="6" t="s">
         <v>114</v>
@@ -4221,10 +4209,10 @@
         <v>10</v>
       </c>
       <c r="U30" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
@@ -4235,7 +4223,7 @@
         <v>532777427</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>32</v>
@@ -4250,19 +4238,19 @@
         <v>19</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J31" s="15" t="s">
         <v>35</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>114</v>
@@ -4289,7 +4277,7 @@
         <v>11</v>
       </c>
       <c r="U31" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V31" t="s">
         <v>0</v>
@@ -4303,7 +4291,7 @@
         <v>532786145</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>11</v>
@@ -4318,10 +4306,10 @@
         <v>19</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J32" s="15" t="s">
         <v>35</v>
@@ -4330,7 +4318,7 @@
         <v>4</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M32" s="6" t="s">
         <v>114</v>
@@ -4357,10 +4345,10 @@
         <v>9</v>
       </c>
       <c r="U32" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
@@ -4371,7 +4359,7 @@
         <v>542819284</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>32</v>
@@ -4386,22 +4374,22 @@
         <v>19</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N33" s="6" t="s">
         <v>91</v>
@@ -4425,10 +4413,10 @@
         <v>7</v>
       </c>
       <c r="U33" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V33" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
@@ -4439,7 +4427,7 @@
         <v>542845624</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>11</v>
@@ -4454,22 +4442,22 @@
         <v>19</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J34" s="15" t="s">
         <v>35</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N34" s="6" t="s">
         <v>1</v>
@@ -4493,10 +4481,10 @@
         <v>21</v>
       </c>
       <c r="U34" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
@@ -4507,7 +4495,7 @@
         <v>542845598</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D35" s="16" t="s">
         <v>11</v>
@@ -4522,10 +4510,10 @@
         <v>19</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J35" s="15" t="s">
         <v>35</v>
@@ -4534,10 +4522,10 @@
         <v>4</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N35" s="6" t="s">
         <v>1</v>
@@ -4561,10 +4549,10 @@
         <v>7</v>
       </c>
       <c r="U35" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
@@ -4575,7 +4563,7 @@
         <v>552893485</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>32</v>
@@ -4587,25 +4575,25 @@
         <v>9</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J36" s="15" t="s">
         <v>35</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N36" s="6" t="s">
         <v>1</v>
@@ -4629,10 +4617,10 @@
         <v>3</v>
       </c>
       <c r="U36" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
@@ -4643,7 +4631,7 @@
         <v>562968147</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D37" s="16" t="s">
         <v>32</v>
@@ -4661,16 +4649,16 @@
         <v>60</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J37" s="15" t="s">
         <v>35</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M37" s="6" t="s">
         <v>102</v>
@@ -4697,10 +4685,10 @@
         <v>18</v>
       </c>
       <c r="U37" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="V37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
@@ -4711,7 +4699,7 @@
         <v>563010355</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>11</v>
@@ -4729,16 +4717,16 @@
         <v>73</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J38" s="15" t="s">
         <v>5</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M38" s="6" t="s">
         <v>102</v>
@@ -4765,10 +4753,10 @@
         <v>14</v>
       </c>
       <c r="U38" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V38" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
@@ -4779,7 +4767,7 @@
         <v>563016400</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>11</v>
@@ -4791,13 +4779,13 @@
         <v>10</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J39" s="15" t="s">
         <v>35</v>
@@ -4806,7 +4794,7 @@
         <v>4</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M39" s="6" t="s">
         <v>102</v>
@@ -4833,10 +4821,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -4847,7 +4835,7 @@
         <v>563033779</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D40" s="16" t="s">
         <v>11</v>
@@ -4865,7 +4853,7 @@
         <v>41</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J40" s="15" t="s">
         <v>35</v>
@@ -4874,7 +4862,7 @@
         <v>4</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M40" s="6" t="s">
         <v>102</v>
@@ -4901,10 +4889,10 @@
         <v>21</v>
       </c>
       <c r="U40" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
@@ -4933,16 +4921,16 @@
         <v>31</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>29</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M41" s="6" t="s">
         <v>82</v>
@@ -4969,10 +4957,10 @@
         <v>7</v>
       </c>
       <c r="U41" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V41" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
@@ -4998,19 +4986,19 @@
         <v>8</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M42" s="6" t="s">
         <v>82</v>
@@ -5037,10 +5025,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V42" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
@@ -5066,10 +5054,10 @@
         <v>8</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>35</v>
@@ -5078,7 +5066,7 @@
         <v>4</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M43" s="6" t="s">
         <v>57</v>
@@ -5105,10 +5093,10 @@
         <v>23</v>
       </c>
       <c r="U43" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
@@ -5137,16 +5125,16 @@
         <v>31</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>29</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M44" s="6" t="s">
         <v>22</v>
@@ -5173,10 +5161,10 @@
         <v>14</v>
       </c>
       <c r="U44" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
@@ -5202,10 +5190,10 @@
         <v>19</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>35</v>
@@ -5214,7 +5202,7 @@
         <v>45</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M45" s="6" t="s">
         <v>22</v>
@@ -5241,10 +5229,10 @@
         <v>3</v>
       </c>
       <c r="U45" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="V45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
@@ -5252,7 +5240,7 @@
         <v>44470.255798611113</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>12</v>
@@ -5273,19 +5261,19 @@
         <v>31</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N46" s="6" t="s">
         <v>33</v>
@@ -5309,10 +5297,10 @@
         <v>8</v>
       </c>
       <c r="U46" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
@@ -5320,7 +5308,7 @@
         <v>44474.266643518517</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>12</v>
@@ -5347,13 +5335,13 @@
         <v>62</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N47" s="6" t="s">
         <v>1</v>
@@ -5377,10 +5365,10 @@
         <v>8</v>
       </c>
       <c r="U47" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
@@ -5388,7 +5376,7 @@
         <v>44482.924259259256</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>12</v>
@@ -5406,10 +5394,10 @@
         <v>8</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>35</v>
@@ -5418,10 +5406,10 @@
         <v>4</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N48" s="6" t="s">
         <v>14</v>
@@ -5445,10 +5433,10 @@
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
@@ -5456,7 +5444,7 @@
         <v>44483.61954861111</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>12</v>
@@ -5474,22 +5462,22 @@
         <v>8</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>29</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N49" s="6" t="s">
         <v>91</v>
@@ -5513,10 +5501,10 @@
         <v>16</v>
       </c>
       <c r="U49" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="V49" t="s">
-        <v>509</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
@@ -5524,7 +5512,7 @@
         <v>44487.462164351855</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>12</v>
@@ -5542,22 +5530,22 @@
         <v>19</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N50" s="6" t="s">
         <v>43</v>
@@ -5581,7 +5569,7 @@
         <v>13</v>
       </c>
       <c r="U50" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V50" t="s">
         <v>0</v>
@@ -5592,7 +5580,7 @@
         <v>44495.218032407407</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>12</v>
@@ -5613,19 +5601,19 @@
         <v>18</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N51" s="6" t="s">
         <v>1</v>
@@ -5649,10 +5637,10 @@
         <v>7</v>
       </c>
       <c r="U51" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="V51" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
@@ -5660,7 +5648,7 @@
         <v>44509</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>12</v>
@@ -5681,19 +5669,19 @@
         <v>96</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>62</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N52" s="6" t="s">
         <v>1</v>
@@ -5717,10 +5705,10 @@
         <v>7</v>
       </c>
       <c r="U52" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V52" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
@@ -5728,7 +5716,7 @@
         <v>44516</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>12</v>
@@ -5749,19 +5737,19 @@
         <v>96</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N53" s="6" t="s">
         <v>1</v>
@@ -5785,10 +5773,10 @@
         <v>13</v>
       </c>
       <c r="U53" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="V53" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
@@ -5796,7 +5784,7 @@
         <v>44517</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>12</v>
@@ -5817,19 +5805,19 @@
         <v>73</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N54" s="6" t="s">
         <v>14</v>
@@ -5853,10 +5841,10 @@
         <v>8</v>
       </c>
       <c r="U54" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V54" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
@@ -5864,7 +5852,7 @@
         <v>44539</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
@@ -5882,10 +5870,10 @@
         <v>8</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>35</v>
@@ -5894,10 +5882,10 @@
         <v>4</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N55" s="6" t="s">
         <v>91</v>
@@ -5921,10 +5909,10 @@
         <v>19</v>
       </c>
       <c r="U55" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="V55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
@@ -5932,7 +5920,7 @@
         <v>44544</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>12</v>
@@ -5953,19 +5941,19 @@
         <v>73</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N56" s="6" t="s">
         <v>1</v>
@@ -5989,10 +5977,10 @@
         <v>21</v>
       </c>
       <c r="U56" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V56" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
@@ -6021,7 +6009,7 @@
         <v>130</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>35</v>
@@ -6033,7 +6021,7 @@
         <v>34</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N57" s="6" t="s">
         <v>43</v>
@@ -6057,10 +6045,10 @@
         <v>20</v>
       </c>
       <c r="U57" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V57" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
@@ -6089,19 +6077,19 @@
         <v>70</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N58" s="6" t="s">
         <v>14</v>
@@ -6125,10 +6113,10 @@
         <v>4</v>
       </c>
       <c r="U58" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
@@ -6154,22 +6142,22 @@
         <v>8</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N59" s="6" t="s">
         <v>14</v>
@@ -6193,10 +6181,10 @@
         <v>19</v>
       </c>
       <c r="U59" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V59" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
@@ -6222,22 +6210,22 @@
         <v>8</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>29</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N60" s="6" t="s">
         <v>14</v>
@@ -6261,10 +6249,10 @@
         <v>1</v>
       </c>
       <c r="U60" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="V60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
@@ -6293,19 +6281,19 @@
         <v>96</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N61" s="6" t="s">
         <v>50</v>
@@ -6329,10 +6317,10 @@
         <v>13</v>
       </c>
       <c r="U61" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V61" t="s">
-        <v>489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
@@ -6361,16 +6349,16 @@
         <v>70</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M62" s="6" t="s">
         <v>114</v>
@@ -6397,7 +6385,7 @@
         <v>7</v>
       </c>
       <c r="U62" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V62" t="s">
         <v>49</v>
@@ -6429,16 +6417,16 @@
         <v>7</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M63" s="6" t="s">
         <v>114</v>
@@ -6465,10 +6453,10 @@
         <v>21</v>
       </c>
       <c r="U63" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
@@ -6494,19 +6482,19 @@
         <v>8</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M64" s="6" t="s">
         <v>114</v>
@@ -6533,10 +6521,10 @@
         <v>9</v>
       </c>
       <c r="U64" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
@@ -6562,19 +6550,19 @@
         <v>19</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>24</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M65" s="6" t="s">
         <v>114</v>
@@ -6601,10 +6589,10 @@
         <v>9</v>
       </c>
       <c r="U65" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
@@ -6630,10 +6618,10 @@
         <v>8</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>35</v>
@@ -6642,10 +6630,10 @@
         <v>4</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N66" s="6" t="s">
         <v>14</v>
@@ -6669,10 +6657,10 @@
         <v>21</v>
       </c>
       <c r="U66" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V66" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
@@ -6698,22 +6686,22 @@
         <v>8</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>29</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N67" s="6" t="s">
         <v>91</v>
@@ -6737,10 +6725,10 @@
         <v>10</v>
       </c>
       <c r="U67" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
@@ -6769,7 +6757,7 @@
         <v>60</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>35</v>
@@ -6778,10 +6766,10 @@
         <v>4</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N68" s="6" t="s">
         <v>91</v>
@@ -6805,10 +6793,10 @@
         <v>2</v>
       </c>
       <c r="U68" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
@@ -6816,7 +6804,7 @@
         <v>44683</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>12</v>
@@ -6837,7 +6825,7 @@
         <v>73</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>35</v>
@@ -6846,10 +6834,10 @@
         <v>45</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N69" s="6" t="s">
         <v>43</v>
@@ -6873,10 +6861,10 @@
         <v>22</v>
       </c>
       <c r="U69" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="V69" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
@@ -6884,7 +6872,7 @@
         <v>44704</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>12</v>
@@ -6902,22 +6890,22 @@
         <v>8</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N70" s="6" t="s">
         <v>43</v>
@@ -6941,7 +6929,7 @@
         <v>7</v>
       </c>
       <c r="U70" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="V70" t="s">
         <v>81</v>
@@ -6952,7 +6940,7 @@
         <v>44706</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>12</v>
@@ -6970,10 +6958,10 @@
         <v>8</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J71" s="5" t="s">
         <v>35</v>
@@ -6982,10 +6970,10 @@
         <v>4</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N71" s="6" t="s">
         <v>14</v>
@@ -7009,10 +6997,10 @@
         <v>22</v>
       </c>
       <c r="U71" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V71" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
@@ -7020,7 +7008,7 @@
         <v>44707</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>12</v>
@@ -7038,22 +7026,22 @@
         <v>8</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J72" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N72" s="6" t="s">
         <v>91</v>
@@ -7077,10 +7065,10 @@
         <v>10</v>
       </c>
       <c r="U72" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V72" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
@@ -7088,7 +7076,7 @@
         <v>44727</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>12</v>
@@ -7106,19 +7094,19 @@
         <v>19</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M73" s="6" t="s">
         <v>102</v>
@@ -7145,10 +7133,10 @@
         <v>1</v>
       </c>
       <c r="U73" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V73" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
@@ -7156,7 +7144,7 @@
         <v>44741</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>12</v>
@@ -7174,19 +7162,19 @@
         <v>8</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J74" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M74" s="6" t="s">
         <v>102</v>
@@ -7213,10 +7201,10 @@
         <v>5</v>
       </c>
       <c r="U74" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="V74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
@@ -7224,7 +7212,7 @@
         <v>44742</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>12</v>
@@ -7245,7 +7233,7 @@
         <v>7</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>35</v>
@@ -7254,7 +7242,7 @@
         <v>4</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M75" s="6" t="s">
         <v>102</v>
@@ -7281,7 +7269,7 @@
         <v>15</v>
       </c>
       <c r="U75" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V75" t="s">
         <v>0</v>
@@ -7292,7 +7280,7 @@
         <v>44743</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>12</v>
@@ -7310,19 +7298,19 @@
         <v>8</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J76" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M76" s="6" t="s">
         <v>82</v>
@@ -7349,10 +7337,10 @@
         <v>16</v>
       </c>
       <c r="U76" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V76" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
@@ -7360,7 +7348,7 @@
         <v>44745</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>12</v>
@@ -7381,16 +7369,16 @@
         <v>18</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J77" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M77" s="6" t="s">
         <v>82</v>
@@ -7417,10 +7405,10 @@
         <v>4</v>
       </c>
       <c r="U77" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V77" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
@@ -7428,7 +7416,7 @@
         <v>44755</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>12</v>
@@ -7446,10 +7434,10 @@
         <v>8</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J78" s="5" t="s">
         <v>35</v>
@@ -7458,7 +7446,7 @@
         <v>4</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M78" s="6" t="s">
         <v>82</v>
@@ -7485,10 +7473,10 @@
         <v>19</v>
       </c>
       <c r="U78" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V78" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
@@ -7517,16 +7505,16 @@
         <v>96</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M79" s="6" t="s">
         <v>57</v>
@@ -7553,7 +7541,7 @@
         <v>17</v>
       </c>
       <c r="U79" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V79" t="s">
         <v>0</v>
@@ -7585,7 +7573,7 @@
         <v>60</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J80" s="5" t="s">
         <v>35</v>
@@ -7594,7 +7582,7 @@
         <v>4</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M80" s="6" t="s">
         <v>57</v>
@@ -7621,10 +7609,10 @@
         <v>21</v>
       </c>
       <c r="U80" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V80" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
@@ -7650,19 +7638,19 @@
         <v>8</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M81" s="6" t="s">
         <v>57</v>
@@ -7689,10 +7677,10 @@
         <v>2</v>
       </c>
       <c r="U81" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
@@ -7718,19 +7706,19 @@
         <v>8</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J82" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M82" s="6" t="s">
         <v>57</v>
@@ -7757,10 +7745,10 @@
         <v>2</v>
       </c>
       <c r="U82" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V82" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
@@ -7789,16 +7777,16 @@
         <v>18</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J83" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M83" s="6" t="s">
         <v>57</v>
@@ -7825,7 +7813,7 @@
         <v>8</v>
       </c>
       <c r="U83" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V83" t="s">
         <v>0</v>
@@ -7857,16 +7845,16 @@
         <v>31</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>29</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M84" s="6" t="s">
         <v>57</v>
@@ -7893,10 +7881,10 @@
         <v>7</v>
       </c>
       <c r="U84" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V84" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
@@ -7922,10 +7910,10 @@
         <v>19</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J85" s="5" t="s">
         <v>35</v>
@@ -7961,10 +7949,10 @@
         <v>19</v>
       </c>
       <c r="U85" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V85" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
@@ -7987,13 +7975,13 @@
         <v>9</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>35</v>
@@ -8002,7 +7990,7 @@
         <v>44</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M86" s="6" t="s">
         <v>22</v>
@@ -8029,10 +8017,10 @@
         <v>0</v>
       </c>
       <c r="U86" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V86" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
@@ -8061,7 +8049,7 @@
         <v>73</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>46</v>
@@ -8097,10 +8085,10 @@
         <v>16</v>
       </c>
       <c r="U87" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V87" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
@@ -8129,16 +8117,16 @@
         <v>31</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>62</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M88" s="6" t="s">
         <v>22</v>
@@ -8165,10 +8153,10 @@
         <v>7</v>
       </c>
       <c r="U88" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V88" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.3">
@@ -8194,19 +8182,19 @@
         <v>8</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>35</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M89" s="6" t="s">
         <v>22</v>
@@ -8233,7 +8221,7 @@
         <v>22</v>
       </c>
       <c r="U89" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V89" t="s">
         <v>0</v>
@@ -8265,7 +8253,7 @@
         <v>73</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>35</v>
@@ -8274,7 +8262,7 @@
         <v>45</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M90" s="6" t="s">
         <v>22</v>
@@ -8301,10 +8289,10 @@
         <v>12</v>
       </c>
       <c r="U90" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="V90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.3">
@@ -8330,10 +8318,10 @@
         <v>19</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J91" s="5" t="s">
         <v>35</v>
@@ -8369,10 +8357,10 @@
         <v>19</v>
       </c>
       <c r="U91" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
@@ -8401,16 +8389,16 @@
         <v>18</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>5</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M92" s="6" t="s">
         <v>22</v>
@@ -8437,7 +8425,7 @@
         <v>8</v>
       </c>
       <c r="U92" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V92" t="s">
         <v>0</v>
@@ -8469,7 +8457,7 @@
         <v>73</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J93" s="5" t="s">
         <v>35</v>
@@ -8478,7 +8466,7 @@
         <v>45</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M93" s="6" t="s">
         <v>22</v>
@@ -8505,10 +8493,10 @@
         <v>14</v>
       </c>
       <c r="U93" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V93" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.3">
@@ -8516,7 +8504,7 @@
         <v>44855</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C94" s="12" t="s">
         <v>12</v>
@@ -8534,10 +8522,10 @@
         <v>8</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J94" s="12" t="s">
         <v>35</v>
@@ -8546,10 +8534,10 @@
         <v>16</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N94" s="6" t="s">
         <v>33</v>
@@ -8573,7 +8561,7 @@
         <v>21</v>
       </c>
       <c r="U94" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V94" t="s">
         <v>0</v>
@@ -8584,7 +8572,7 @@
         <v>44872</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>12</v>
@@ -8605,7 +8593,7 @@
         <v>31</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>29</v>
@@ -8614,10 +8602,10 @@
         <v>16</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N95" s="6" t="s">
         <v>43</v>
@@ -8641,10 +8629,10 @@
         <v>6</v>
       </c>
       <c r="U95" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V95" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
@@ -8652,7 +8640,7 @@
         <v>44905</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>12</v>
@@ -8670,10 +8658,10 @@
         <v>19</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J96" s="5" t="s">
         <v>46</v>
@@ -8682,10 +8670,10 @@
         <v>4</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N96" s="6" t="s">
         <v>50</v>
@@ -8706,13 +8694,13 @@
         <v>44905.84375</v>
       </c>
       <c r="T96" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U96" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="V96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.3">
@@ -8720,7 +8708,7 @@
         <v>44908</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>12</v>
@@ -8738,10 +8726,10 @@
         <v>8</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>62</v>
@@ -8750,10 +8738,10 @@
         <v>16</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N97" s="6" t="s">
         <v>1</v>
@@ -8774,13 +8762,13 @@
         <v>44908.272222222222</v>
       </c>
       <c r="T97" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U97" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V97" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.3">
@@ -8788,7 +8776,7 @@
         <v>44917</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>12</v>
@@ -8809,7 +8797,7 @@
         <v>96</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>62</v>
@@ -8818,10 +8806,10 @@
         <v>16</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N98" s="6" t="s">
         <v>91</v>
@@ -8842,10 +8830,10 @@
         <v>44917.803472222222</v>
       </c>
       <c r="T98" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="U98" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V98" t="s">
         <v>0</v>
@@ -8877,7 +8865,7 @@
         <v>60</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J99" s="8" t="s">
         <v>35</v>
@@ -8889,7 +8877,7 @@
         <v>16</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N99" s="6" t="s">
         <v>33</v>
@@ -8913,10 +8901,10 @@
         <v>0</v>
       </c>
       <c r="U99" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V99" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.3">
@@ -8945,7 +8933,7 @@
         <v>96</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J100" s="8" t="s">
         <v>29</v>
@@ -8954,10 +8942,10 @@
         <v>16</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N100" s="6" t="s">
         <v>43</v>
@@ -8981,10 +8969,10 @@
         <v>13</v>
       </c>
       <c r="U100" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.3">
@@ -9010,10 +8998,10 @@
         <v>8</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J101" s="8" t="s">
         <v>35</v>
@@ -9022,10 +9010,10 @@
         <v>16</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N101" s="6" t="s">
         <v>1</v>
@@ -9049,10 +9037,10 @@
         <v>2</v>
       </c>
       <c r="U101" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V101" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.3">
@@ -9078,10 +9066,10 @@
         <v>19</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J102" s="8" t="s">
         <v>35</v>
@@ -9090,10 +9078,10 @@
         <v>16</v>
       </c>
       <c r="L102" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N102" s="6" t="s">
         <v>50</v>
@@ -9117,10 +9105,10 @@
         <v>10</v>
       </c>
       <c r="U102" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.3">
@@ -9146,10 +9134,10 @@
         <v>8</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J103" s="8" t="s">
         <v>62</v>
@@ -9158,10 +9146,10 @@
         <v>16</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M103" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N103" s="6" t="s">
         <v>43</v>
@@ -9185,10 +9173,10 @@
         <v>5</v>
       </c>
       <c r="U103" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V103" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.3">
@@ -9214,10 +9202,10 @@
         <v>19</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J104" s="8" t="s">
         <v>35</v>
@@ -9229,7 +9217,7 @@
         <v>34</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N104" s="6" t="s">
         <v>1</v>
@@ -9253,10 +9241,10 @@
         <v>20</v>
       </c>
       <c r="U104" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.3">
@@ -9282,10 +9270,10 @@
         <v>8</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J105" s="8" t="s">
         <v>62</v>
@@ -9294,10 +9282,10 @@
         <v>16</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N105" s="6" t="s">
         <v>14</v>
@@ -9321,10 +9309,10 @@
         <v>12</v>
       </c>
       <c r="U105" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.3">
@@ -9353,7 +9341,7 @@
         <v>37</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J106" s="5" t="s">
         <v>35</v>
@@ -9365,7 +9353,7 @@
         <v>34</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N106" s="6" t="s">
         <v>91</v>
@@ -9389,10 +9377,10 @@
         <v>18</v>
       </c>
       <c r="U106" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V106" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.3">
@@ -9421,7 +9409,7 @@
         <v>134</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>35</v>
@@ -9433,7 +9421,7 @@
         <v>45</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N107" s="6" t="s">
         <v>33</v>
@@ -9457,10 +9445,10 @@
         <v>11</v>
       </c>
       <c r="U107" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.3">
@@ -9489,7 +9477,7 @@
         <v>56</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J108" s="5" t="s">
         <v>35</v>
@@ -9501,7 +9489,7 @@
         <v>34</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N108" s="6" t="s">
         <v>14</v>
@@ -9525,10 +9513,10 @@
         <v>21</v>
       </c>
       <c r="U108" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="V108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.3">
@@ -9557,7 +9545,7 @@
         <v>60</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J109" s="5" t="s">
         <v>35</v>
@@ -9593,10 +9581,10 @@
         <v>20</v>
       </c>
       <c r="U109" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.3">
@@ -9625,7 +9613,7 @@
         <v>60</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J110" s="5" t="s">
         <v>35</v>
@@ -9634,7 +9622,7 @@
         <v>16</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>114</v>
@@ -9661,10 +9649,10 @@
         <v>19</v>
       </c>
       <c r="U110" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.3">
@@ -9693,7 +9681,7 @@
         <v>60</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J111" s="5" t="s">
         <v>35</v>
@@ -9729,10 +9717,10 @@
         <v>9</v>
       </c>
       <c r="U111" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.3">
@@ -9761,7 +9749,7 @@
         <v>31</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J112" s="5" t="s">
         <v>29</v>
@@ -9770,7 +9758,7 @@
         <v>16</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>114</v>
@@ -9797,10 +9785,10 @@
         <v>6</v>
       </c>
       <c r="U112" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="V112" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.3">
@@ -9829,7 +9817,7 @@
         <v>85</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J113" s="5" t="s">
         <v>35</v>
@@ -9838,7 +9826,7 @@
         <v>16</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>114</v>
@@ -9865,10 +9853,10 @@
         <v>19</v>
       </c>
       <c r="U113" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.3">
@@ -9897,7 +9885,7 @@
         <v>31</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J114" s="5" t="s">
         <v>62</v>
@@ -9906,7 +9894,7 @@
         <v>16</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M114" s="1" t="s">
         <v>114</v>
@@ -9933,10 +9921,10 @@
         <v>19</v>
       </c>
       <c r="U114" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="V114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.3">
@@ -9965,7 +9953,7 @@
         <v>85</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J115" s="5" t="s">
         <v>5</v>
@@ -9974,7 +9962,7 @@
         <v>16</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>114</v>
@@ -10001,10 +9989,10 @@
         <v>4</v>
       </c>
       <c r="U115" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V115" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.3">
@@ -10069,7 +10057,7 @@
         <v>14</v>
       </c>
       <c r="U116" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V116" t="s">
         <v>0</v>
@@ -10137,7 +10125,7 @@
         <v>20</v>
       </c>
       <c r="U117" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V117" t="s">
         <v>0</v>
@@ -10205,7 +10193,7 @@
         <v>12</v>
       </c>
       <c r="U118" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V118" t="s">
         <v>0</v>
@@ -10273,7 +10261,7 @@
         <v>12</v>
       </c>
       <c r="U119" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V119" t="s">
         <v>0</v>
@@ -10341,10 +10329,10 @@
         <v>3</v>
       </c>
       <c r="U120" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="V120" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.3">
@@ -10409,7 +10397,7 @@
         <v>12</v>
       </c>
       <c r="U121" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V121" t="s">
         <v>0</v>
@@ -10477,10 +10465,10 @@
         <v>20</v>
       </c>
       <c r="U122" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="V122" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.3">
@@ -10545,7 +10533,7 @@
         <v>16</v>
       </c>
       <c r="U123" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V123" t="s">
         <v>0</v>
@@ -10613,10 +10601,10 @@
         <v>16</v>
       </c>
       <c r="U124" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="V124" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.3">
@@ -10681,10 +10669,10 @@
         <v>15</v>
       </c>
       <c r="U125" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V125" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.3">
@@ -10749,10 +10737,10 @@
         <v>2</v>
       </c>
       <c r="U126" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="V126" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.3">
@@ -10817,7 +10805,7 @@
         <v>8</v>
       </c>
       <c r="U127" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V127" t="s">
         <v>0</v>
@@ -10885,10 +10873,10 @@
         <v>21</v>
       </c>
       <c r="U128" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V128" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.3">
@@ -10953,10 +10941,10 @@
         <v>2</v>
       </c>
       <c r="U129" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="V129" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.3">
@@ -11021,10 +11009,10 @@
         <v>8</v>
       </c>
       <c r="U130" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V130" t="s">
-        <v>489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.3">
@@ -11089,10 +11077,10 @@
         <v>8</v>
       </c>
       <c r="U131" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V131" t="s">
-        <v>489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.3">
@@ -11157,7 +11145,7 @@
         <v>15</v>
       </c>
       <c r="U132" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="V132" t="s">
         <v>42</v>
@@ -11225,7 +11213,7 @@
         <v>20</v>
       </c>
       <c r="U133" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="V133" t="s">
         <v>81</v>
@@ -11293,7 +11281,7 @@
         <v>14</v>
       </c>
       <c r="U134" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V134" t="s">
         <v>0</v>
@@ -11361,7 +11349,7 @@
         <v>14</v>
       </c>
       <c r="U135" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V135" t="s">
         <v>0</v>
@@ -11429,7 +11417,7 @@
         <v>14</v>
       </c>
       <c r="U136" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V136" t="s">
         <v>0</v>
@@ -11497,10 +11485,10 @@
         <v>4</v>
       </c>
       <c r="U137" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="V137" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.3">
@@ -11565,10 +11553,10 @@
         <v>4</v>
       </c>
       <c r="U138" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V138" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.3">
@@ -11633,7 +11621,7 @@
         <v>23</v>
       </c>
       <c r="U139" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="V139" t="s">
         <v>81</v>
@@ -11701,7 +11689,7 @@
         <v>7</v>
       </c>
       <c r="U140" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="V140" t="s">
         <v>77</v>
@@ -11769,7 +11757,7 @@
         <v>21</v>
       </c>
       <c r="U141" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V141" t="s">
         <v>74</v>
@@ -11837,7 +11825,7 @@
         <v>16</v>
       </c>
       <c r="U142" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V142" t="s">
         <v>0</v>
@@ -11905,7 +11893,7 @@
         <v>12</v>
       </c>
       <c r="U143" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V143" t="s">
         <v>0</v>
@@ -11973,7 +11961,7 @@
         <v>1</v>
       </c>
       <c r="U144" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V144" t="s">
         <v>64</v>
@@ -12041,7 +12029,7 @@
         <v>0</v>
       </c>
       <c r="U145" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="V145" t="s">
         <v>53</v>
@@ -12109,10 +12097,10 @@
         <v>16</v>
       </c>
       <c r="U146" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="V146" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.3">
@@ -12177,10 +12165,10 @@
         <v>20</v>
       </c>
       <c r="U147" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V147" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.3">
@@ -12245,7 +12233,7 @@
         <v>3</v>
       </c>
       <c r="U148" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="V148" t="s">
         <v>49</v>
@@ -12313,10 +12301,10 @@
         <v>0</v>
       </c>
       <c r="U149" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V149" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.3">
@@ -12381,7 +12369,7 @@
         <v>20</v>
       </c>
       <c r="U150" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V150" t="s">
         <v>38</v>
@@ -12449,10 +12437,10 @@
         <v>0</v>
       </c>
       <c r="U151" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="V151" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.3">
@@ -12517,7 +12505,7 @@
         <v>3</v>
       </c>
       <c r="U152" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="V152" t="s">
         <v>27</v>
@@ -12585,7 +12573,7 @@
         <v>5</v>
       </c>
       <c r="U153" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V153" t="s">
         <v>21</v>
@@ -12653,10 +12641,10 @@
         <v>18</v>
       </c>
       <c r="U154" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V154" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.3">
@@ -12721,7 +12709,7 @@
         <v>11</v>
       </c>
       <c r="U155" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V155" t="s">
         <v>0</v>

--- a/data/Historico de Robos Mondelez.xlsx
+++ b/data/Historico de Robos Mondelez.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elthon Daniel Rivas\OneDrive - ILSP GLOBAL SEGURIDAD PRIVADA SAPI DE C.V\Documentos\Areas de Trabajo\Inteligencia de Negocios\Aplicaciones\Productivo\RiesgoMondelez\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ilspglobalsegu-my.sharepoint.com/personal/erivas_ai27_com/Documents/Documentos/Areas de Trabajo/Inteligencia de Negocios/Aplicaciones/Productivo/RiesgoMondelez/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ACBE3D-BDFC-4D1B-A8F1-7AF8A3EAA48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{50ACBE3D-BDFC-4D1B-A8F1-7AF8A3EAA48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EEC0478-1BB5-4225-8AF1-EFEFDF773D03}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46DA9119-B414-43D6-856D-41E7D57F0765}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46DA9119-B414-43D6-856D-41E7D57F0765}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="509">
   <si>
     <t>Autopista México - Puebla</t>
   </si>
@@ -1582,6 +1582,9 @@
   </si>
   <si>
     <t>Autopista Matehuala - San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Año</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1702,9 +1705,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2161,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9E9A14-3547-4C07-94E4-960D372374FC}">
   <dimension ref="A1:W155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2240,6 +2240,9 @@
       <c r="V1" t="s">
         <v>445</v>
       </c>
+      <c r="W1" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
@@ -2308,7 +2311,10 @@
       <c r="V2" t="s">
         <v>165</v>
       </c>
-      <c r="W2" s="18"/>
+      <c r="W2" s="18" t="str">
+        <f>TEXT(S2,"AAAA")</f>
+        <v>2020</v>
+      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
@@ -2377,7 +2383,10 @@
       <c r="V3" t="s">
         <v>442</v>
       </c>
-      <c r="W3" s="19"/>
+      <c r="W3" s="18" t="str">
+        <f t="shared" ref="W3:W66" si="0">TEXT(S3,"AAAA")</f>
+        <v>2020</v>
+      </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
@@ -2446,6 +2455,10 @@
       <c r="V4" t="s">
         <v>501</v>
       </c>
+      <c r="W4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
@@ -2514,6 +2527,10 @@
       <c r="V5" t="s">
         <v>501</v>
       </c>
+      <c r="W5" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
@@ -2582,6 +2599,10 @@
       <c r="V6" t="s">
         <v>502</v>
       </c>
+      <c r="W6" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
@@ -2650,6 +2671,10 @@
       <c r="V7" t="s">
         <v>434</v>
       </c>
+      <c r="W7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
@@ -2718,6 +2743,10 @@
       <c r="V8" t="s">
         <v>432</v>
       </c>
+      <c r="W8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
@@ -2786,6 +2815,10 @@
       <c r="V9" t="s">
         <v>149</v>
       </c>
+      <c r="W9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
@@ -2854,6 +2887,10 @@
       <c r="V10" t="s">
         <v>427</v>
       </c>
+      <c r="W10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
@@ -2922,6 +2959,10 @@
       <c r="V11" t="s">
         <v>0</v>
       </c>
+      <c r="W11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
@@ -2990,6 +3031,10 @@
       <c r="V12" t="s">
         <v>409</v>
       </c>
+      <c r="W12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
@@ -3058,6 +3103,10 @@
       <c r="V13" t="s">
         <v>420</v>
       </c>
+      <c r="W13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
@@ -3126,6 +3175,10 @@
       <c r="V14" t="s">
         <v>409</v>
       </c>
+      <c r="W14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
@@ -3194,6 +3247,10 @@
       <c r="V15" t="s">
         <v>486</v>
       </c>
+      <c r="W15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
@@ -3262,8 +3319,12 @@
       <c r="V16" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>44118</v>
       </c>
@@ -3330,8 +3391,12 @@
       <c r="V17" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>44128</v>
       </c>
@@ -3398,8 +3463,12 @@
       <c r="V18" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W18" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>44154</v>
       </c>
@@ -3466,8 +3535,12 @@
       <c r="V19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W19" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>44173</v>
       </c>
@@ -3534,8 +3607,12 @@
       <c r="V20" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W20" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>44219.175312500003</v>
       </c>
@@ -3602,8 +3679,12 @@
       <c r="V21" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W21" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>44221.899756944447</v>
       </c>
@@ -3670,8 +3751,12 @@
       <c r="V22" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W22" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>44231.20144675926</v>
       </c>
@@ -3738,8 +3823,12 @@
       <c r="V23" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W23" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>44233.353437500002</v>
       </c>
@@ -3806,8 +3895,12 @@
       <c r="V24" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W24" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>44236.45071759259</v>
       </c>
@@ -3874,8 +3967,12 @@
       <c r="V25" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W25" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>44245.566134259258</v>
       </c>
@@ -3942,8 +4039,12 @@
       <c r="V26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W26" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>44247.526192129626</v>
       </c>
@@ -4010,8 +4111,12 @@
       <c r="V27" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W27" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>44250.912893518522</v>
       </c>
@@ -4078,8 +4183,12 @@
       <c r="V28" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W28" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>44258.149293981478</v>
       </c>
@@ -4146,8 +4255,12 @@
       <c r="V29" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W29" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>44263.438194444447</v>
       </c>
@@ -4214,8 +4327,12 @@
       <c r="V30" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W30" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>44270.486643518518</v>
       </c>
@@ -4282,8 +4399,12 @@
       <c r="V31" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W31" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>44273.397094907406</v>
       </c>
@@ -4350,8 +4471,12 @@
       <c r="V32" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W32" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>44287.312511574077</v>
       </c>
@@ -4418,8 +4543,12 @@
       <c r="V33" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W33" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>44299</v>
       </c>
@@ -4486,8 +4615,12 @@
       <c r="V34" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W34" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>44299.331944444442</v>
       </c>
@@ -4554,8 +4687,12 @@
       <c r="V35" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W35" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>44320.127372685187</v>
       </c>
@@ -4622,8 +4759,12 @@
       <c r="V36" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W36" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>44350</v>
       </c>
@@ -4690,8 +4831,12 @@
       <c r="V37" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W37" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>44367.508402777778</v>
       </c>
@@ -4758,8 +4903,12 @@
       <c r="V38" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W38" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>44369</v>
       </c>
@@ -4826,8 +4975,12 @@
       <c r="V39" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W39" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>44376.827199074076</v>
       </c>
@@ -4894,8 +5047,12 @@
       <c r="V40" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W40" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>44379.24894675926</v>
       </c>
@@ -4962,8 +5119,12 @@
       <c r="V41" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W41" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>44405.951388888891</v>
       </c>
@@ -5030,8 +5191,12 @@
       <c r="V42" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W42" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>44427</v>
       </c>
@@ -5098,8 +5263,12 @@
       <c r="V43" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W43" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>44446</v>
       </c>
@@ -5166,8 +5335,12 @@
       <c r="V44" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W44" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>44449</v>
       </c>
@@ -5234,8 +5407,12 @@
       <c r="V45" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W45" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>44470.255798611113</v>
       </c>
@@ -5302,8 +5479,12 @@
       <c r="V46" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W46" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>44474.266643518517</v>
       </c>
@@ -5370,8 +5551,12 @@
       <c r="V47" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W47" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>44482.924259259256</v>
       </c>
@@ -5438,8 +5623,12 @@
       <c r="V48" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W48" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>44483.61954861111</v>
       </c>
@@ -5506,8 +5695,12 @@
       <c r="V49" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W49" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>44487.462164351855</v>
       </c>
@@ -5574,8 +5767,12 @@
       <c r="V50" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W50" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>44495.218032407407</v>
       </c>
@@ -5642,8 +5839,12 @@
       <c r="V51" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W51" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>44509</v>
       </c>
@@ -5710,8 +5911,12 @@
       <c r="V52" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W52" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>44516</v>
       </c>
@@ -5778,8 +5983,12 @@
       <c r="V53" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W53" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>44517</v>
       </c>
@@ -5846,8 +6055,12 @@
       <c r="V54" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W54" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>44539</v>
       </c>
@@ -5914,8 +6127,12 @@
       <c r="V55" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W55" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
         <v>44544</v>
       </c>
@@ -5982,8 +6199,12 @@
       <c r="V56" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W56" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>44578</v>
       </c>
@@ -6050,8 +6271,12 @@
       <c r="V57" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W57" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
         <v>44580</v>
       </c>
@@ -6118,8 +6343,12 @@
       <c r="V58" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W58" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>44587</v>
       </c>
@@ -6186,8 +6415,12 @@
       <c r="V59" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W59" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
         <v>44601</v>
       </c>
@@ -6254,8 +6487,12 @@
       <c r="V60" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W60" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>44604</v>
       </c>
@@ -6322,8 +6559,12 @@
       <c r="V61" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W61" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
         <v>44624</v>
       </c>
@@ -6390,8 +6631,12 @@
       <c r="V62" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W62" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>44629</v>
       </c>
@@ -6458,8 +6703,12 @@
       <c r="V63" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W63" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
         <v>44633</v>
       </c>
@@ -6526,8 +6775,12 @@
       <c r="V64" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W64" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="13">
         <v>44643</v>
       </c>
@@ -6594,8 +6847,12 @@
       <c r="V65" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W65" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
         <v>44657</v>
       </c>
@@ -6662,8 +6919,12 @@
       <c r="V66" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W66" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="13">
         <v>44658</v>
       </c>
@@ -6730,8 +6991,12 @@
       <c r="V67" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W67" s="18" t="str">
+        <f t="shared" ref="W67:W130" si="1">TEXT(S67,"AAAA")</f>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
         <v>44672</v>
       </c>
@@ -6798,8 +7063,12 @@
       <c r="V68" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W68" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="13">
         <v>44683</v>
       </c>
@@ -6866,8 +7135,12 @@
       <c r="V69" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W69" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="13">
         <v>44704</v>
       </c>
@@ -6934,8 +7207,12 @@
       <c r="V70" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W70" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
         <v>44706</v>
       </c>
@@ -7002,8 +7279,12 @@
       <c r="V71" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W71" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="13">
         <v>44707</v>
       </c>
@@ -7070,8 +7351,12 @@
       <c r="V72" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W72" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="13">
         <v>44727</v>
       </c>
@@ -7138,8 +7423,12 @@
       <c r="V73" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W73" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="13">
         <v>44741</v>
       </c>
@@ -7206,8 +7495,12 @@
       <c r="V74" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W74" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="13">
         <v>44742</v>
       </c>
@@ -7274,8 +7567,12 @@
       <c r="V75" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W75" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="13">
         <v>44743</v>
       </c>
@@ -7342,8 +7639,12 @@
       <c r="V76" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W76" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="13">
         <v>44745</v>
       </c>
@@ -7410,8 +7711,12 @@
       <c r="V77" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W77" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="13">
         <v>44755</v>
       </c>
@@ -7478,8 +7783,12 @@
       <c r="V78" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W78" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="13">
         <v>44774</v>
       </c>
@@ -7546,8 +7855,12 @@
       <c r="V79" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W79" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="13">
         <v>44776</v>
       </c>
@@ -7614,8 +7927,12 @@
       <c r="V80" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W80" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="13">
         <v>44783</v>
       </c>
@@ -7682,8 +7999,12 @@
       <c r="V81" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W81" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="13">
         <v>44783</v>
       </c>
@@ -7750,8 +8071,12 @@
       <c r="V82" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W82" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="13">
         <v>44784</v>
       </c>
@@ -7818,8 +8143,12 @@
       <c r="V83" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W83" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="13">
         <v>44802</v>
       </c>
@@ -7886,8 +8215,12 @@
       <c r="V84" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W84" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="13">
         <v>44802</v>
       </c>
@@ -7954,8 +8287,12 @@
       <c r="V85" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W85" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
         <v>44807</v>
       </c>
@@ -8022,8 +8359,12 @@
       <c r="V86" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W86" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="13">
         <v>44813</v>
       </c>
@@ -8090,8 +8431,12 @@
       <c r="V87" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W87" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="13">
         <v>44817</v>
       </c>
@@ -8158,8 +8503,12 @@
       <c r="V88" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W88" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="13">
         <v>44817</v>
       </c>
@@ -8226,8 +8575,12 @@
       <c r="V89" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W89" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="13">
         <v>44817</v>
       </c>
@@ -8294,8 +8647,12 @@
       <c r="V90" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W90" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="13">
         <v>44830</v>
       </c>
@@ -8362,8 +8719,12 @@
       <c r="V91" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W91" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" s="13">
         <v>44834</v>
       </c>
@@ -8430,8 +8791,12 @@
       <c r="V92" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W92" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="13">
         <v>44834</v>
       </c>
@@ -8498,8 +8863,12 @@
       <c r="V93" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W93" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="13">
         <v>44855</v>
       </c>
@@ -8566,8 +8935,12 @@
       <c r="V94" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W94" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
         <v>44872</v>
       </c>
@@ -8634,8 +9007,12 @@
       <c r="V95" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W95" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
         <v>44905</v>
       </c>
@@ -8702,8 +9079,12 @@
       <c r="V96" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W96" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
         <v>44908</v>
       </c>
@@ -8770,8 +9151,12 @@
       <c r="V97" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W97" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <v>44917</v>
       </c>
@@ -8838,8 +9223,12 @@
       <c r="V98" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W98" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
         <v>44939</v>
       </c>
@@ -8906,8 +9295,12 @@
       <c r="V99" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W99" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
         <v>44942</v>
       </c>
@@ -8974,8 +9367,12 @@
       <c r="V100" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W100" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
         <v>44943</v>
       </c>
@@ -9042,8 +9439,12 @@
       <c r="V101" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W101" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
         <v>44947</v>
       </c>
@@ -9110,8 +9511,12 @@
       <c r="V102" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W102" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
         <v>44949</v>
       </c>
@@ -9178,8 +9583,12 @@
       <c r="V103" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W103" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" s="10">
         <v>44950</v>
       </c>
@@ -9246,8 +9655,12 @@
       <c r="V104" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W104" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
         <v>44951</v>
       </c>
@@ -9314,8 +9727,12 @@
       <c r="V105" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W105" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>44959</v>
       </c>
@@ -9382,8 +9799,12 @@
       <c r="V106" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W106" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>44960</v>
       </c>
@@ -9450,8 +9871,12 @@
       <c r="V107" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W107" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>44965</v>
       </c>
@@ -9518,8 +9943,12 @@
       <c r="V108" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W108" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>44986</v>
       </c>
@@ -9586,8 +10015,12 @@
       <c r="V109" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W109" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>44987</v>
       </c>
@@ -9654,8 +10087,12 @@
       <c r="V110" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W110" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>44987</v>
       </c>
@@ -9722,8 +10159,12 @@
       <c r="V111" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W111" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>45041</v>
       </c>
@@ -9790,8 +10231,12 @@
       <c r="V112" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W112" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>45043</v>
       </c>
@@ -9858,8 +10303,12 @@
       <c r="V113" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W113" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>45057</v>
       </c>
@@ -9926,8 +10375,12 @@
       <c r="V114" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W114" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>45062</v>
       </c>
@@ -9994,8 +10447,12 @@
       <c r="V115" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W115" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>44999</v>
       </c>
@@ -10062,8 +10519,12 @@
       <c r="V116" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W116" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>44999</v>
       </c>
@@ -10130,8 +10591,12 @@
       <c r="V117" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W117" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>45008</v>
       </c>
@@ -10198,8 +10663,12 @@
       <c r="V118" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W118" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>45008</v>
       </c>
@@ -10266,8 +10735,12 @@
       <c r="V119" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W119" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>45014</v>
       </c>
@@ -10334,8 +10807,12 @@
       <c r="V120" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W120" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>45026</v>
       </c>
@@ -10402,8 +10879,12 @@
       <c r="V121" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W121" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>45031</v>
       </c>
@@ -10470,8 +10951,12 @@
       <c r="V122" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W122" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>45034</v>
       </c>
@@ -10538,8 +11023,12 @@
       <c r="V123" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W123" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>45044</v>
       </c>
@@ -10606,8 +11095,12 @@
       <c r="V124" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W124" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>45069</v>
       </c>
@@ -10674,8 +11167,12 @@
       <c r="V125" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W125" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>45069</v>
       </c>
@@ -10742,8 +11239,12 @@
       <c r="V126" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W126" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>45069</v>
       </c>
@@ -10810,8 +11311,12 @@
       <c r="V127" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W127" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>45077</v>
       </c>
@@ -10878,8 +11383,12 @@
       <c r="V128" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W128" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>45092</v>
       </c>
@@ -10946,8 +11455,12 @@
       <c r="V129" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W129" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>45092</v>
       </c>
@@ -11014,8 +11527,12 @@
       <c r="V130" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W130" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>45103</v>
       </c>
@@ -11082,8 +11599,12 @@
       <c r="V131" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W131" s="18" t="str">
+        <f t="shared" ref="W131:W155" si="2">TEXT(S131,"AAAA")</f>
+        <v>26/06/203 08:03</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>45089</v>
       </c>
@@ -11150,8 +11671,12 @@
       <c r="V132" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W132" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>45123</v>
       </c>
@@ -11218,8 +11743,12 @@
       <c r="V133" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W133" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>45127</v>
       </c>
@@ -11286,8 +11815,12 @@
       <c r="V134" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W134" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>45127</v>
       </c>
@@ -11354,8 +11887,12 @@
       <c r="V135" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W135" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>45127</v>
       </c>
@@ -11422,8 +11959,12 @@
       <c r="V136" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W136" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>45131</v>
       </c>
@@ -11490,8 +12031,12 @@
       <c r="V137" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W137" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>45132</v>
       </c>
@@ -11558,8 +12103,12 @@
       <c r="V138" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W138" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>45132</v>
       </c>
@@ -11626,8 +12175,12 @@
       <c r="V139" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W139" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>45149</v>
       </c>
@@ -11694,8 +12247,12 @@
       <c r="V140" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W140" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>45152</v>
       </c>
@@ -11762,8 +12319,12 @@
       <c r="V141" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W141" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>45160</v>
       </c>
@@ -11830,8 +12391,12 @@
       <c r="V142" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W142" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>45161</v>
       </c>
@@ -11898,8 +12463,12 @@
       <c r="V143" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W143" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>45166</v>
       </c>
@@ -11966,8 +12535,12 @@
       <c r="V144" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W144" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>45167</v>
       </c>
@@ -12034,8 +12607,12 @@
       <c r="V145" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W145" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>45140</v>
       </c>
@@ -12102,8 +12679,12 @@
       <c r="V146" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W146" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>45189</v>
       </c>
@@ -12170,8 +12751,12 @@
       <c r="V147" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W147" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>45192</v>
       </c>
@@ -12238,8 +12823,12 @@
       <c r="V148" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W148" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>45194</v>
       </c>
@@ -12306,8 +12895,12 @@
       <c r="V149" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W149" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>45181</v>
       </c>
@@ -12374,8 +12967,12 @@
       <c r="V150" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W150" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>45184</v>
       </c>
@@ -12442,8 +13039,12 @@
       <c r="V151" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W151" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>45188</v>
       </c>
@@ -12510,8 +13111,12 @@
       <c r="V152" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W152" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>45196</v>
       </c>
@@ -12578,8 +13183,12 @@
       <c r="V153" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W153" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>45210</v>
       </c>
@@ -12646,8 +13255,12 @@
       <c r="V154" s="4" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W154" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>45230</v>
       </c>
@@ -12713,6 +13326,10 @@
       </c>
       <c r="V155" t="s">
         <v>0</v>
+      </c>
+      <c r="W155" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>2023</v>
       </c>
     </row>
   </sheetData>

--- a/data/Historico de Robos Mondelez.xlsx
+++ b/data/Historico de Robos Mondelez.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ilspglobalsegu-my.sharepoint.com/personal/erivas_ai27_com/Documents/Documentos/Areas de Trabajo/Inteligencia de Negocios/Aplicaciones/Productivo/RiesgoMondelez/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{50ACBE3D-BDFC-4D1B-A8F1-7AF8A3EAA48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EEC0478-1BB5-4225-8AF1-EFEFDF773D03}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{50ACBE3D-BDFC-4D1B-A8F1-7AF8A3EAA48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{972940EE-465D-4652-B91F-1C43CF6E32A4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46DA9119-B414-43D6-856D-41E7D57F0765}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46DA9119-B414-43D6-856D-41E7D57F0765}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -2161,9 +2161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9E9A14-3547-4C07-94E4-960D372374FC}">
   <dimension ref="A1:W155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
